--- a/Supplementary Material/Table S3.xlsx
+++ b/Supplementary Material/Table S3.xlsx
@@ -454,10 +454,10 @@
         <v>1.232044978707246</v>
       </c>
       <c r="J2">
-        <v>0.8051374019431726</v>
+        <v>0.7650724339380179</v>
       </c>
       <c r="K2">
-        <v>1.232378422036847</v>
+        <v>1.539388264585877</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>3.822699225236982</v>
       </c>
       <c r="J3">
-        <v>0.04450161167540539</v>
+        <v>0.1153601215702607</v>
       </c>
       <c r="K3">
-        <v>-1.513782048116464</v>
+        <v>-2.069030268073301</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>-0.06296020057592831</v>
       </c>
       <c r="J4">
-        <v>-0.3706498981603608</v>
+        <v>-0.4121639630965508</v>
       </c>
       <c r="K4">
-        <v>1.063020901347429</v>
+        <v>1.565330006388424</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -568,10 +568,10 @@
         <v>2.319311733646203</v>
       </c>
       <c r="J5">
-        <v>-1.397561645759823</v>
+        <v>-1.404674961225906</v>
       </c>
       <c r="K5">
-        <v>-0.4837015165104872</v>
+        <v>-0.1490900124345091</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -597,19 +597,19 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.603185627961383</v>
       </c>
       <c r="H6">
-        <v>-5.932165142575223</v>
+        <v>-6.531932400792328</v>
       </c>
       <c r="I6">
-        <v>2.215984343487144</v>
+        <v>1.965820394287821</v>
       </c>
       <c r="J6">
-        <v>-1.153456320149715</v>
+        <v>-1.250920561712306</v>
       </c>
       <c r="K6">
-        <v>0.2171448819141458</v>
+        <v>0.2427303493788693</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -644,10 +644,10 @@
         <v>1.732104805233149</v>
       </c>
       <c r="J7">
-        <v>3.478616317721353</v>
+        <v>3.486633435466695</v>
       </c>
       <c r="K7">
-        <v>0.2917596836961991</v>
+        <v>0.1698241218112295</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -682,10 +682,10 @@
         <v>-0.4185890869204154</v>
       </c>
       <c r="J8">
-        <v>2.777492850490418</v>
+        <v>2.688691913548625</v>
       </c>
       <c r="K8">
-        <v>2.3949454100223</v>
+        <v>3.073366636507346</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>-5.463876366495287</v>
       </c>
       <c r="J9">
-        <v>0.1266904604451249</v>
+        <v>0.1363848397376146</v>
       </c>
       <c r="K9">
-        <v>-1.174948345458417</v>
+        <v>-1.397520095293317</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>-1.31645042687376</v>
       </c>
       <c r="J10">
-        <v>0.3330276216829884</v>
+        <v>0.3720431423961313</v>
       </c>
       <c r="K10">
-        <v>-0.620172855095624</v>
+        <v>-1.096445815677975</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.479233653922204</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0.7271552294548347</v>
@@ -790,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>-3.231871201691424</v>
+        <v>-3.883692307979225</v>
       </c>
       <c r="I11">
-        <v>-2.320413173366018</v>
+        <v>-2.071554083987978</v>
       </c>
       <c r="J11">
-        <v>1.52747567229445</v>
+        <v>1.512868899237639</v>
       </c>
       <c r="K11">
-        <v>1.576696248913742</v>
+        <v>2.187926254705847</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -834,10 +834,10 @@
         <v>-1.495281368047664</v>
       </c>
       <c r="J12">
-        <v>0.916103520549491</v>
+        <v>0.898541503879842</v>
       </c>
       <c r="K12">
-        <v>0.0403873902541203</v>
+        <v>0.348666210405993</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -872,10 +872,10 @@
         <v>-3.074943015672302</v>
       </c>
       <c r="J13">
-        <v>1.884013178277538</v>
+        <v>1.950421869874406</v>
       </c>
       <c r="K13">
-        <v>-1.827231001251287</v>
+        <v>-2.06451486408399</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>-0.6147186649284406</v>
       </c>
       <c r="J14">
-        <v>-1.269828810224148</v>
+        <v>-1.250989408008622</v>
       </c>
       <c r="K14">
-        <v>-1.537002495213574</v>
+        <v>-1.448682946696693</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -948,10 +948,10 @@
         <v>-2.484024609437821</v>
       </c>
       <c r="J15">
-        <v>5.369309456056674</v>
+        <v>5.355162992290753</v>
       </c>
       <c r="K15">
-        <v>0.9855156322985501</v>
+        <v>1.064577411511313</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.235394652989156</v>
+        <v>2.192127499176425</v>
       </c>
       <c r="I16">
-        <v>-1.610413634937674</v>
+        <v>-0.6950995577384771</v>
       </c>
       <c r="J16">
-        <v>3.821760218987865</v>
+        <v>2.872023204213968</v>
       </c>
       <c r="K16">
-        <v>1.385251285057177</v>
+        <v>2.282434806873735</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,10 +1024,10 @@
         <v>-3.876817254840296</v>
       </c>
       <c r="J17">
-        <v>3.060524901418051</v>
+        <v>3.093747485713014</v>
       </c>
       <c r="K17">
-        <v>0.08939881158258675</v>
+        <v>-0.2167142686297676</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>1.104071442079684</v>
       </c>
       <c r="J18">
-        <v>0.8738772915635411</v>
+        <v>0.8433552480284242</v>
       </c>
       <c r="K18">
-        <v>-1.707674734513529</v>
+        <v>-0.9491653692403816</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>-0.576892218493919</v>
       </c>
       <c r="J19">
-        <v>4.746051769284746</v>
+        <v>4.744076876265653</v>
       </c>
       <c r="K19">
-        <v>0.4900933676284665</v>
+        <v>0.3136095340624618</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0.8848906541476859</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.892743738771438</v>
+        <v>2.312599032597863</v>
       </c>
       <c r="I20">
-        <v>-0.7360048070364871</v>
+        <v>0.0280021442524292</v>
       </c>
       <c r="J20">
-        <v>-0.2758891632439939</v>
+        <v>1.16999737743708</v>
       </c>
       <c r="K20">
-        <v>-1.577906382139948</v>
+        <v>-1.743262686326323</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>3.891428612208049</v>
       </c>
       <c r="J21">
-        <v>0.1789620193441996</v>
+        <v>0.1837110069746234</v>
       </c>
       <c r="K21">
-        <v>-1.64106069130296</v>
+        <v>-1.096146192360822</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>-2.21752617729511</v>
       </c>
       <c r="J22">
-        <v>-1.182743343620175</v>
+        <v>-1.171034948694725</v>
       </c>
       <c r="K22">
-        <v>0.5898613752460254</v>
+        <v>0.3977280600445263</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -1246,16 +1246,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>-7.65907830763575</v>
+        <v>-6.392729502463524</v>
       </c>
       <c r="I23">
-        <v>-1.033625991943798</v>
+        <v>1.333427584880647</v>
       </c>
       <c r="J23">
-        <v>-1.646693732247922</v>
+        <v>-1.527291510995861</v>
       </c>
       <c r="K23">
-        <v>1.343828446565285</v>
+        <v>1.588546198717534</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1275,25 +1275,25 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0.8334438232575205</v>
       </c>
       <c r="F24">
-        <v>0.4355126144321908</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.8061184955728092</v>
       </c>
       <c r="H24">
-        <v>3.402408418487021</v>
+        <v>-1.349739664184379</v>
       </c>
       <c r="I24">
-        <v>0.5945359119110705</v>
+        <v>0.8788659330012465</v>
       </c>
       <c r="J24">
-        <v>0.7064368129532033</v>
+        <v>-0.2350249618937106</v>
       </c>
       <c r="K24">
-        <v>2.805814355862891</v>
+        <v>3.046459089488774</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -1328,10 +1328,10 @@
         <v>2.750574958227679</v>
       </c>
       <c r="J25">
-        <v>0.1400865498083151</v>
+        <v>0.1965248252207552</v>
       </c>
       <c r="K25">
-        <v>-1.36472700503786</v>
+        <v>-1.10663019184124</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1366,10 +1366,10 @@
         <v>5.601498412561508</v>
       </c>
       <c r="J26">
-        <v>-0.229272853308546</v>
+        <v>-0.2225392864349792</v>
       </c>
       <c r="K26">
-        <v>-0.6440071179437146</v>
+        <v>-0.7140295377485597</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -1389,25 +1389,25 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1.173013410334778</v>
+        <v>0.3460268206695563</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0.4037595243529289</v>
       </c>
       <c r="H27">
-        <v>-4.593544775254129</v>
+        <v>-3.681968726488554</v>
       </c>
       <c r="I27">
-        <v>0.9426801819541424</v>
+        <v>0.4217024425512725</v>
       </c>
       <c r="J27">
-        <v>-0.9766011002323114</v>
+        <v>-0.4007011300113611</v>
       </c>
       <c r="K27">
-        <v>0.06590514770922995</v>
+        <v>-0.3897599480585731</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -1442,10 +1442,10 @@
         <v>-0.6538660134451413</v>
       </c>
       <c r="J28">
-        <v>0.334672841202834</v>
+        <v>0.2703277798523426</v>
       </c>
       <c r="K28">
-        <v>1.70977244855933</v>
+        <v>2.342945382580352</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1480,10 +1480,10 @@
         <v>0.5912404165337772</v>
       </c>
       <c r="J29">
-        <v>-0.6930079712738193</v>
+        <v>-0.704378454084959</v>
       </c>
       <c r="K29">
-        <v>-0.09975901012645896</v>
+        <v>0.08049434747279816</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -1503,25 +1503,25 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.8619033855251227</v>
       </c>
       <c r="F30">
         <v>0.1993545506237486</v>
       </c>
       <c r="G30">
-        <v>0.8686955098516022</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>-1.343810691496924</v>
+        <v>-1.636555903367149</v>
       </c>
       <c r="I30">
-        <v>-4.378783345934217</v>
+        <v>-4.369372218410647</v>
       </c>
       <c r="J30">
-        <v>-0.3652953385759844</v>
+        <v>-0.5604467463583094</v>
       </c>
       <c r="K30">
-        <v>-0.7025366925325819</v>
+        <v>-1.424694717257796</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>3.397706732664276</v>
       </c>
       <c r="J31">
-        <v>-0.7641661240455171</v>
+        <v>-0.7088641133753864</v>
       </c>
       <c r="K31">
-        <v>-0.4583851358063133</v>
+        <v>-0.9625500690206763</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>-2.201217097071439</v>
       </c>
       <c r="J32">
-        <v>-2.36074042545688</v>
+        <v>-2.373186225765204</v>
       </c>
       <c r="K32">
-        <v>0.9005232271721113</v>
+        <v>0.8085273883974762</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -1632,10 +1632,10 @@
         <v>-1.504773873342479</v>
       </c>
       <c r="J33">
-        <v>-0.8481891541537103</v>
+        <v>-0.8294435131084817</v>
       </c>
       <c r="K33">
-        <v>-2.004474959747716</v>
+        <v>-1.871665983988318</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>-1.911041683219938</v>
       </c>
       <c r="J34">
-        <v>0.9495336819773521</v>
+        <v>0.8976875158450545</v>
       </c>
       <c r="K34">
-        <v>2.211326101215259</v>
+        <v>2.46292661604369</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -1708,10 +1708,10 @@
         <v>0.3681823162265654</v>
       </c>
       <c r="J35">
-        <v>-0.4197208378620257</v>
+        <v>-0.4096284894052239</v>
       </c>
       <c r="K35">
-        <v>-0.6300329636093828</v>
+        <v>-0.5930043899961992</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -1740,16 +1740,16 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>-3.043722114280307</v>
+        <v>-0.6838983466371558</v>
       </c>
       <c r="I36">
-        <v>-3.964200822598738</v>
+        <v>-3.829084449084004</v>
       </c>
       <c r="J36">
-        <v>0.8724355726836442</v>
+        <v>2.401124772380177</v>
       </c>
       <c r="K36">
-        <v>0.8578451842519204</v>
+        <v>-2.438565393222842</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.5024128608294012</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1778,16 +1778,16 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>-1.713609759698273</v>
+        <v>-1.362031108702676</v>
       </c>
       <c r="I37">
-        <v>-1.714466884220817</v>
+        <v>-1.687539788928432</v>
       </c>
       <c r="J37">
-        <v>-0.2634896308859078</v>
+        <v>1.122383407056102</v>
       </c>
       <c r="K37">
-        <v>-1.219806721792627</v>
+        <v>-1.705901446397057</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.03070084595190614</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0.4467185991338365</v>
@@ -1816,16 +1816,16 @@
         <v>0.6864181042985581</v>
       </c>
       <c r="H38">
-        <v>-4.667480284164019</v>
+        <v>-4.743567825851838</v>
       </c>
       <c r="I38">
-        <v>-2.372127637655902</v>
+        <v>0.3405453248028629</v>
       </c>
       <c r="J38">
-        <v>-1.97544293873285</v>
+        <v>-1.838690810360262</v>
       </c>
       <c r="K38">
-        <v>-0.3294294814909213</v>
+        <v>-0.481588548795972</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -1860,10 +1860,10 @@
         <v>1.00500006121695</v>
       </c>
       <c r="J39">
-        <v>0.8275319475632987</v>
+        <v>0.7657792879888574</v>
       </c>
       <c r="K39">
-        <v>1.558793426077133</v>
+        <v>2.119079807106834</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -1883,25 +1883,25 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1.85811256477988</v>
       </c>
       <c r="F40">
-        <v>0.4540480681686925</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.4766939084563374</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>-0.9561176758781322</v>
+        <v>-3.216944964521859</v>
       </c>
       <c r="I40">
-        <v>-0.07583214120528256</v>
+        <v>0.4788654866979819</v>
       </c>
       <c r="J40">
-        <v>-1.337043241552325</v>
+        <v>-1.278722500218121</v>
       </c>
       <c r="K40">
-        <v>-0.2967883497872749</v>
+        <v>-0.627709872037238</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -1936,10 +1936,10 @@
         <v>-3.946470182190068</v>
       </c>
       <c r="J41">
-        <v>0.8762027130714053</v>
+        <v>0.8719093992671586</v>
       </c>
       <c r="K41">
-        <v>0.9761982001133632</v>
+        <v>0.8182335381693275</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -1959,25 +1959,25 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1.33680448646653</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.8609746033864751</v>
       </c>
       <c r="G42">
         <v>1.398791782404858</v>
       </c>
       <c r="H42">
-        <v>-3.073029466078196</v>
+        <v>-4.28602085107309</v>
       </c>
       <c r="I42">
-        <v>-2.47017041826015</v>
+        <v>-2.028172491911287</v>
       </c>
       <c r="J42">
-        <v>-0.933187975084306</v>
+        <v>-1.171829219433459</v>
       </c>
       <c r="K42">
-        <v>-0.8510147948864154</v>
+        <v>-0.7556101394350969</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -2012,10 +2012,10 @@
         <v>-2.057809067147165</v>
       </c>
       <c r="J43">
-        <v>0.8638256384739283</v>
+        <v>0.8611138110859424</v>
       </c>
       <c r="K43">
-        <v>-2.689016014277033</v>
+        <v>-1.892600217676562</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>-3.850829109940106</v>
       </c>
       <c r="J44">
-        <v>-1.397953033829993</v>
+        <v>-1.387371642650073</v>
       </c>
       <c r="K44">
-        <v>-2.280546829940794</v>
+        <v>-1.813592189539114</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2088,10 +2088,10 @@
         <v>-1.490251081621789</v>
       </c>
       <c r="J45">
-        <v>1.293741851054668</v>
+        <v>1.310473710923046</v>
       </c>
       <c r="K45">
-        <v>-0.9160957800799607</v>
+        <v>-0.8648201702709557</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -2120,16 +2120,16 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>-0.1195571871594185</v>
+        <v>-0.01523373078075169</v>
       </c>
       <c r="I46">
-        <v>-3.732710965925299</v>
+        <v>-2.805528854835481</v>
       </c>
       <c r="J46">
-        <v>-1.396564922940257</v>
+        <v>-1.026266976379018</v>
       </c>
       <c r="K46">
-        <v>-1.474114262634059</v>
+        <v>-1.43029153930018</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -2164,10 +2164,10 @@
         <v>2.960995142804229</v>
       </c>
       <c r="J47">
-        <v>1.284841815984054</v>
+        <v>1.317160581941841</v>
       </c>
       <c r="K47">
-        <v>-1.677105818944673</v>
+        <v>-1.665795766146708</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0.3056039328399199</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2196,16 +2196,16 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>5.743358787056091</v>
+        <v>6.576739208176746</v>
       </c>
       <c r="I48">
-        <v>0.8440389526098285</v>
+        <v>1.027563798280186</v>
       </c>
       <c r="J48">
-        <v>1.672096945016171</v>
+        <v>2.352291640790128</v>
       </c>
       <c r="K48">
-        <v>-0.005147135186708951</v>
+        <v>0.7779698325131725</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.4108045023355995</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2225,25 +2225,25 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.7785502590540477</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.7881774252549901</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>5.927102866923457</v>
+        <v>6.331499410665521</v>
       </c>
       <c r="I49">
-        <v>3.529794500742105</v>
+        <v>3.058094988499994</v>
       </c>
       <c r="J49">
-        <v>2.920978212154933</v>
+        <v>3.389626455164002</v>
       </c>
       <c r="K49">
-        <v>0.8270363329156407</v>
+        <v>-0.7120952693824897</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -2278,10 +2278,10 @@
         <v>-1.483291453823529</v>
       </c>
       <c r="J50">
-        <v>0.2818698796127943</v>
+        <v>0.321651056598046</v>
       </c>
       <c r="K50">
-        <v>-2.207149223494466</v>
+        <v>-2.340668125325949</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -2316,10 +2316,10 @@
         <v>2.168955711043087</v>
       </c>
       <c r="J51">
-        <v>0.883821436078792</v>
+        <v>0.8648655047661653</v>
       </c>
       <c r="K51">
-        <v>-0.9774679271261079</v>
+        <v>-0.4450984243841053</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -2348,16 +2348,16 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>3.71085339678355</v>
+        <v>3.740371709204521</v>
       </c>
       <c r="I52">
-        <v>1.235979033539469</v>
+        <v>-0.4094379621102787</v>
       </c>
       <c r="J52">
-        <v>1.13505550049449</v>
+        <v>1.145147092009359</v>
       </c>
       <c r="K52">
-        <v>-1.372589548693403</v>
+        <v>0.5030900125842851</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.4217098925114047</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.8972009769638755</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2386,16 +2386,16 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>2.55158167486446</v>
+        <v>2.737775378287624</v>
       </c>
       <c r="I53">
-        <v>-0.602529622361571</v>
+        <v>0.9383090477079743</v>
       </c>
       <c r="J53">
-        <v>1.109091155137192</v>
+        <v>1.224601009883227</v>
       </c>
       <c r="K53">
-        <v>-1.524716375097065</v>
+        <v>-0.07074106116007739</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>-2.607149497524277</v>
       </c>
       <c r="J54">
-        <v>4.0859035165618</v>
+        <v>4.088558859431215</v>
       </c>
       <c r="K54">
-        <v>2.202200637811937</v>
+        <v>1.688135276470911</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -2468,10 +2468,10 @@
         <v>3.428620010554541</v>
       </c>
       <c r="J55">
-        <v>-2.165712622205415</v>
+        <v>-2.153167188925035</v>
       </c>
       <c r="K55">
-        <v>0.708516433937934</v>
+        <v>0.1711778911504245</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -2506,10 +2506,10 @@
         <v>-4.006738926551512</v>
       </c>
       <c r="J56">
-        <v>1.019317272247096</v>
+        <v>1.040127398145381</v>
       </c>
       <c r="K56">
-        <v>0.06229962551870375</v>
+        <v>-0.1938909221915296</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0.5462958276804668</v>
       </c>
       <c r="C57">
-        <v>0.3395037398362071</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0.8828321850718597</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2538,16 +2538,16 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>9.443745060822595</v>
+        <v>9.817146341678491</v>
       </c>
       <c r="I57">
-        <v>1.193559689795358</v>
+        <v>1.867199323464481</v>
       </c>
       <c r="J57">
-        <v>0.6468063800407448</v>
+        <v>0.7290393085020404</v>
       </c>
       <c r="K57">
-        <v>1.25737130462108</v>
+        <v>0.8342015052280048</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -2561,13 +2561,13 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.2016215864664097</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0.7356026567617159</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2576,16 +2576,16 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>4.721256871662957</v>
+        <v>4.767037925279284</v>
       </c>
       <c r="I58">
-        <v>-1.094217055366897</v>
+        <v>-1.223907306335703</v>
       </c>
       <c r="J58">
-        <v>4.205736745081681</v>
+        <v>3.57267885053197</v>
       </c>
       <c r="K58">
-        <v>0.9220725877413672</v>
+        <v>0.3976370803152858</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>6.33980670633318</v>
       </c>
       <c r="J59">
-        <v>-3.504173568863545</v>
+        <v>-3.472875921250817</v>
       </c>
       <c r="K59">
-        <v>2.051859415431715</v>
+        <v>1.732090315576145</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -2658,10 +2658,10 @@
         <v>-0.6773741732543752</v>
       </c>
       <c r="J60">
-        <v>3.68860603908208</v>
+        <v>3.691623193256711</v>
       </c>
       <c r="K60">
-        <v>0.8105741742924097</v>
+        <v>0.6227248913306684</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>5.330953730703368</v>
+        <v>6.405401450222851</v>
       </c>
       <c r="I61">
-        <v>-1.517193049367004</v>
+        <v>-0.584732097514281</v>
       </c>
       <c r="J61">
-        <v>4.081507173284014</v>
+        <v>4.032152350899929</v>
       </c>
       <c r="K61">
-        <v>1.750749506468807</v>
+        <v>0.7386484078158193</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>-1.471026092244882</v>
       </c>
       <c r="J62">
-        <v>1.510937427093089</v>
+        <v>1.535246322852429</v>
       </c>
       <c r="K62">
-        <v>0.3954440080664547</v>
+        <v>0.5804093093113075</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.8317998863873537</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>4.532128115157928</v>
+        <v>3.627835086009346</v>
       </c>
       <c r="I63">
-        <v>-0.7692517386965865</v>
+        <v>-0.6249620315442093</v>
       </c>
       <c r="J63">
-        <v>4.175759441786409</v>
+        <v>3.978802759775401</v>
       </c>
       <c r="K63">
-        <v>0.8563333367050787</v>
+        <v>1.875683278745181</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -2810,10 +2810,10 @@
         <v>-1.187153562280277</v>
       </c>
       <c r="J64">
-        <v>0.8183120773097081</v>
+        <v>0.7997281247572496</v>
       </c>
       <c r="K64">
-        <v>-0.6051397468497872</v>
+        <v>-0.3336762223423704</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -2848,10 +2848,10 @@
         <v>-0.7040543526798693</v>
       </c>
       <c r="J65">
-        <v>3.844182676966829</v>
+        <v>3.840024921216588</v>
       </c>
       <c r="K65">
-        <v>1.220426412918223</v>
+        <v>0.9271546359229234</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>3.788029888409856</v>
       </c>
       <c r="J66">
-        <v>2.169378949681052</v>
+        <v>2.176115659237134</v>
       </c>
       <c r="K66">
-        <v>-0.09890080626971909</v>
+        <v>-0.3160717657204728</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>-2.051427681756635</v>
       </c>
       <c r="J67">
-        <v>-1.017530713072893</v>
+        <v>-0.9665085356969599</v>
       </c>
       <c r="K67">
-        <v>-0.5994438997386343</v>
+        <v>-1.405996776207781</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>-1.511280642186471</v>
+        <v>-1.682818463820912</v>
       </c>
       <c r="I68">
-        <v>-1.393945266876057</v>
+        <v>-1.386909119311929</v>
       </c>
       <c r="J68">
-        <v>0.1214461949886473</v>
+        <v>1.148847735437696</v>
       </c>
       <c r="K68">
-        <v>-1.023043533779008</v>
+        <v>-1.305926045538278</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>3.420268912256234</v>
       </c>
       <c r="J69">
-        <v>-2.334735937231637</v>
+        <v>-2.303218346042547</v>
       </c>
       <c r="K69">
-        <v>-0.2448448781764889</v>
+        <v>-0.4368099588157803</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0.8617727859180869</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3032,16 +3032,16 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>-0.547055644551151</v>
+        <v>0.1381956250642549</v>
       </c>
       <c r="I70">
-        <v>-1.107279082453333</v>
+        <v>-1.139562483110354</v>
       </c>
       <c r="J70">
-        <v>0.2042143448909959</v>
+        <v>-0.1541209360962063</v>
       </c>
       <c r="K70">
-        <v>-1.395074677557855</v>
+        <v>-1.017727652839154</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>-2.689282996880456</v>
       </c>
       <c r="J71">
-        <v>-0.9595002135062828</v>
+        <v>-0.9448381164560556</v>
       </c>
       <c r="K71">
-        <v>-1.134900476583949</v>
+        <v>-1.127008943516101</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -3114,10 +3114,10 @@
         <v>-1.023312456419305</v>
       </c>
       <c r="J72">
-        <v>-1.537386544591453</v>
+        <v>-1.545479502602881</v>
       </c>
       <c r="K72">
-        <v>0.6295843736966158</v>
+        <v>0.5267437123331378</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -3152,10 +3152,10 @@
         <v>4.990798058667625</v>
       </c>
       <c r="J73">
-        <v>-0.6837647028336435</v>
+        <v>-0.6547993210031825</v>
       </c>
       <c r="K73">
-        <v>-1.18625852551473</v>
+        <v>-1.027528331992924</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>2.513663564355906</v>
       </c>
       <c r="J74">
-        <v>-0.3223987794140504</v>
+        <v>-0.262549576398903</v>
       </c>
       <c r="K74">
-        <v>-1.53829791064061</v>
+        <v>-2.084000912507721</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -3228,10 +3228,10 @@
         <v>-1.824856560200124</v>
       </c>
       <c r="J75">
-        <v>-2.823214833306573</v>
+        <v>-2.851043078061267</v>
       </c>
       <c r="K75">
-        <v>-0.1789533227260699</v>
+        <v>0.14028260450785</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>1.344581182026811</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3260,16 +3260,16 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>-0.8841578170912068</v>
+        <v>-2.853999234577891</v>
       </c>
       <c r="I76">
-        <v>1.513076558511436</v>
+        <v>2.191496936765037</v>
       </c>
       <c r="J76">
-        <v>-2.244531421914348</v>
+        <v>-1.881660440152223</v>
       </c>
       <c r="K76">
-        <v>2.875034471979568</v>
+        <v>2.815719141454072</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -3304,10 +3304,10 @@
         <v>1.018353137623178</v>
       </c>
       <c r="J77">
-        <v>-0.04665419275393758</v>
+        <v>-0.04005125104357843</v>
       </c>
       <c r="K77">
-        <v>-0.7273445065479494</v>
+        <v>0.3002420918728599</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         <v>-2.578655580456302</v>
       </c>
       <c r="J78">
-        <v>-1.812071416169585</v>
+        <v>-1.850480276039581</v>
       </c>
       <c r="K78">
-        <v>0.4292241200067154</v>
+        <v>0.5845419182910417</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -3380,10 +3380,10 @@
         <v>1.438500149618355</v>
       </c>
       <c r="J79">
-        <v>-1.456659934391126</v>
+        <v>-1.519340912291312</v>
       </c>
       <c r="K79">
-        <v>1.404397231512907</v>
+        <v>2.136679113478325</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -3418,10 +3418,10 @@
         <v>-2.025732522858805</v>
       </c>
       <c r="J80">
-        <v>-1.873007272731084</v>
+        <v>-1.886409029480505</v>
       </c>
       <c r="K80">
-        <v>0.2287644716419929</v>
+        <v>0.4179193799804938</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -3441,25 +3441,25 @@
         <v>0.07350328996790978</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>1.844150951904944</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81">
-        <v>0.7440362849370825</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>-6.195900069271206</v>
+        <v>-5.894775172483302</v>
       </c>
       <c r="I81">
-        <v>1.966568881262326</v>
+        <v>1.642446645119118</v>
       </c>
       <c r="J81">
-        <v>-1.584836647309727</v>
+        <v>-1.284610187073579</v>
       </c>
       <c r="K81">
-        <v>-0.04356622841591151</v>
+        <v>0.564879213982985</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -3494,10 +3494,10 @@
         <v>-2.957991602746264</v>
       </c>
       <c r="J82">
-        <v>-2.14924509665122</v>
+        <v>-2.20807782609553</v>
       </c>
       <c r="K82">
-        <v>4.794541425435323</v>
+        <v>4.533319747007354</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -3532,10 +3532,10 @@
         <v>-0.2421797588662415</v>
       </c>
       <c r="J83">
-        <v>-2.409818117552785</v>
+        <v>-2.466694098429016</v>
       </c>
       <c r="K83">
-        <v>0.7627791445385282</v>
+        <v>1.516788047154356</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -3555,25 +3555,25 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0.995506792743703</v>
       </c>
       <c r="F84">
-        <v>0.8092266193234346</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>0.8891893277213251</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>-7.267571515690817</v>
+        <v>-7.937048820078239</v>
       </c>
       <c r="I84">
-        <v>-0.379365796760642</v>
+        <v>-0.3178011686605845</v>
       </c>
       <c r="J84">
-        <v>-1.369996706042013</v>
+        <v>-0.4356350829618407</v>
       </c>
       <c r="K84">
-        <v>-0.1284312606204379</v>
+        <v>1.293736780436326</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -3602,16 +3602,16 @@
         <v>0.5957966978355567</v>
       </c>
       <c r="H85">
-        <v>-3.903526166028233</v>
+        <v>-3.978623009150628</v>
       </c>
       <c r="I85">
-        <v>-2.183228212631307</v>
+        <v>-2.164610569508366</v>
       </c>
       <c r="J85">
-        <v>-0.6285523018588026</v>
+        <v>-1.10060212980004</v>
       </c>
       <c r="K85">
-        <v>1.861070523584837</v>
+        <v>1.872388659929605</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -3646,10 +3646,10 @@
         <v>-1.316758136827402</v>
       </c>
       <c r="J86">
-        <v>2.698771425321834</v>
+        <v>2.632985094268034</v>
       </c>
       <c r="K86">
-        <v>3.138854233307897</v>
+        <v>3.347654890039797</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -3684,10 +3684,10 @@
         <v>2.88149177501296</v>
       </c>
       <c r="J87">
-        <v>-1.246775895669333</v>
+        <v>-1.271921292889235</v>
       </c>
       <c r="K87">
-        <v>-0.250339156046635</v>
+        <v>0.2628798037917416</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -3713,19 +3713,19 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0.8651237452292029</v>
       </c>
       <c r="H88">
-        <v>-8.100677000884499</v>
+        <v>-7.751290603839061</v>
       </c>
       <c r="I88">
-        <v>-3.800751020497665</v>
+        <v>-3.867550536587797</v>
       </c>
       <c r="J88">
-        <v>0.6788436974590843</v>
+        <v>0.5330667058264811</v>
       </c>
       <c r="K88">
-        <v>0.6532546914912658</v>
+        <v>-0.2797320576522849</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -3754,16 +3754,16 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>-4.835795376141237</v>
+        <v>-6.865505479320101</v>
       </c>
       <c r="I89">
-        <v>0.6439873253611168</v>
+        <v>0.4033767512610169</v>
       </c>
       <c r="J89">
-        <v>-1.48834254830232</v>
+        <v>-0.8232889303807649</v>
       </c>
       <c r="K89">
-        <v>0.1288673688013351</v>
+        <v>-0.3402931613537722</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -3798,10 +3798,10 @@
         <v>1.853271695484958</v>
       </c>
       <c r="J90">
-        <v>-0.1733451515361222</v>
+        <v>-0.1054834448637472</v>
       </c>
       <c r="K90">
-        <v>-1.433179385909429</v>
+        <v>-1.988469294303905</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -3827,19 +3827,19 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>0.453637908490201</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>-8.569874256347219</v>
+        <v>-8.752215855950753</v>
       </c>
       <c r="I91">
-        <v>0.2585782207429983</v>
+        <v>0.9049444103474078</v>
       </c>
       <c r="J91">
-        <v>-1.389058105701084</v>
+        <v>-2.173160149062054</v>
       </c>
       <c r="K91">
-        <v>-0.64303770231984</v>
+        <v>0.5315571570659366</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -3874,10 +3874,10 @@
         <v>1.923880200652165</v>
       </c>
       <c r="J92">
-        <v>-2.264525593606172</v>
+        <v>-2.254367314583825</v>
       </c>
       <c r="K92">
-        <v>0.2015336817676053</v>
+        <v>-0.2916483896285054</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>-0.2124817638467548</v>
       </c>
       <c r="J93">
-        <v>-2.372738527324635</v>
+        <v>-2.410981627031003</v>
       </c>
       <c r="K93">
-        <v>1.831223763327809</v>
+        <v>2.235453232557363</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0.8253857211818878</v>
+        <v>1</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -3944,16 +3944,16 @@
         <v>0.6401200345146435</v>
       </c>
       <c r="H94">
-        <v>-9.581683013381884</v>
+        <v>-9.454221504184723</v>
       </c>
       <c r="I94">
-        <v>0.05393446025604864</v>
+        <v>-0.1801375416313653</v>
       </c>
       <c r="J94">
-        <v>-0.8159601509013699</v>
+        <v>-1.033217773473905</v>
       </c>
       <c r="K94">
-        <v>1.012048570554336</v>
+        <v>-0.2070021830370963</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -3988,10 +3988,10 @@
         <v>-0.3609829900541108</v>
       </c>
       <c r="J95">
-        <v>-3.727861629412311</v>
+        <v>-3.719998564929853</v>
       </c>
       <c r="K95">
-        <v>1.734276801929362</v>
+        <v>1.630895682035013</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -4026,10 +4026,10 @@
         <v>3.453465850290668</v>
       </c>
       <c r="J96">
-        <v>-1.424314717714041</v>
+        <v>-1.444446268594687</v>
       </c>
       <c r="K96">
-        <v>-0.03042853200169815</v>
+        <v>-0.1273420476581193</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -4064,10 +4064,10 @@
         <v>3.42933179280484</v>
       </c>
       <c r="J97">
-        <v>-0.9151596539522665</v>
+        <v>-0.8746099639171652</v>
       </c>
       <c r="K97">
-        <v>0.1679730231007844</v>
+        <v>-0.4676504245114074</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>0.4778683807946845</v>
       </c>
       <c r="J98">
-        <v>-0.7446488983558465</v>
+        <v>-0.7449532522700253</v>
       </c>
       <c r="K98">
-        <v>-0.2335729384055443</v>
+        <v>-0.1425791385290155</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -4116,13 +4116,13 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.6040332809955223</v>
+        <v>0</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0.8767515811101877</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>0.2762818488501317</v>
@@ -4131,19 +4131,19 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>0.8673330381368943</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>-6.468750579962997</v>
+        <v>-7.492480389243456</v>
       </c>
       <c r="I99">
-        <v>-4.003853946694664</v>
+        <v>-1.642941612615605</v>
       </c>
       <c r="J99">
-        <v>-2.481773111742228</v>
+        <v>-3.576907622937909</v>
       </c>
       <c r="K99">
-        <v>0.5645570997178977</v>
+        <v>2.466315464442424</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -4178,10 +4178,10 @@
         <v>-2.274923611630252</v>
       </c>
       <c r="J100">
-        <v>0.628923669939866</v>
+        <v>0.5818230405764815</v>
       </c>
       <c r="K100">
-        <v>1.865928890114372</v>
+        <v>2.032473920676297</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -4216,10 +4216,10 @@
         <v>6.516311992690998</v>
       </c>
       <c r="J101">
-        <v>-0.2667125588941803</v>
+        <v>-0.2722637916479091</v>
       </c>
       <c r="K101">
-        <v>0.2886073028428788</v>
+        <v>0.3280936089422876</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -4254,10 +4254,10 @@
         <v>7.338456176268229</v>
       </c>
       <c r="J102">
-        <v>-0.4259908441898939</v>
+        <v>-0.4396138353979036</v>
       </c>
       <c r="K102">
-        <v>0.2791075222325407</v>
+        <v>0.5729115932844558</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -4292,10 +4292,10 @@
         <v>4.424979153266525</v>
       </c>
       <c r="J103">
-        <v>-0.9345649799483485</v>
+        <v>-0.9295145462925367</v>
       </c>
       <c r="K103">
-        <v>-0.7176626437545458</v>
+        <v>-0.5099009164954037</v>
       </c>
       <c r="L103">
         <v>1</v>
@@ -4330,10 +4330,10 @@
         <v>2.922399759157706</v>
       </c>
       <c r="J104">
-        <v>0.08465542273103432</v>
+        <v>0.08002487390821744</v>
       </c>
       <c r="K104">
-        <v>-0.499260656888559</v>
+        <v>-0.2334302374381944</v>
       </c>
       <c r="L104">
         <v>1</v>
@@ -4368,10 +4368,10 @@
         <v>-1.265586690638589</v>
       </c>
       <c r="J105">
-        <v>-0.9155844788534524</v>
+        <v>-0.9523207895078756</v>
       </c>
       <c r="K105">
-        <v>-0.2649006362459438</v>
+        <v>0.3418601678584471</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -4406,10 +4406,10 @@
         <v>-1.392305004623747</v>
       </c>
       <c r="J106">
-        <v>0.02658729029565093</v>
+        <v>0.04573573675423348</v>
       </c>
       <c r="K106">
-        <v>-1.574554965471934</v>
+        <v>-1.331260195392787</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -4444,10 +4444,10 @@
         <v>-2.367292643457986</v>
       </c>
       <c r="J107">
-        <v>-1.367090942949201</v>
+        <v>-1.408676795241453</v>
       </c>
       <c r="K107">
-        <v>0.5749657063827078</v>
+        <v>0.8505690457490009</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -4482,10 +4482,10 @@
         <v>-3.795140056267052</v>
       </c>
       <c r="J108">
-        <v>2.146827359107495</v>
+        <v>2.174786714715904</v>
       </c>
       <c r="K108">
-        <v>-1.363926305707169</v>
+        <v>-1.621545091057923</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -4520,10 +4520,10 @@
         <v>-5.355880632841058</v>
       </c>
       <c r="J109">
-        <v>-0.8355327633941507</v>
+        <v>-0.8272972510205476</v>
       </c>
       <c r="K109">
-        <v>-0.3926060782494343</v>
+        <v>-0.3621573681192238</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -4558,10 +4558,10 @@
         <v>-2.141412907294744</v>
       </c>
       <c r="J110">
-        <v>-0.8750847383900817</v>
+        <v>-0.8836583719904281</v>
       </c>
       <c r="K110">
-        <v>0.3199800110019173</v>
+        <v>0.3478853612995152</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -4581,25 +4581,25 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>1.490345326916259</v>
+        <v>0.5096546730837416</v>
       </c>
       <c r="F111">
-        <v>0.6904219992983678</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>0.9312391241860541</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>1.966829594282102</v>
+        <v>1.810608167735092</v>
       </c>
       <c r="I111">
-        <v>-4.492488025304161</v>
+        <v>-2.862110724518424</v>
       </c>
       <c r="J111">
-        <v>-0.7913684409459361</v>
+        <v>-0.9292506240454305</v>
       </c>
       <c r="K111">
-        <v>-0.3766119719349436</v>
+        <v>-0.1931116201436221</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -4628,16 +4628,16 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>-0.4842168792398214</v>
+        <v>-0.6382897920147751</v>
       </c>
       <c r="I112">
-        <v>0.7859204343253173</v>
+        <v>1.096939479374818</v>
       </c>
       <c r="J112">
-        <v>-0.0309223792054571</v>
+        <v>0.08312498633423232</v>
       </c>
       <c r="K112">
-        <v>-1.413100338995717</v>
+        <v>-1.170161450605504</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -4672,10 +4672,10 @@
         <v>2.007428125346483</v>
       </c>
       <c r="J113">
-        <v>-0.1841813240407393</v>
+        <v>-0.1628883638767041</v>
       </c>
       <c r="K113">
-        <v>-1.13963195980259</v>
+        <v>-1.306878087634692</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -4710,10 +4710,10 @@
         <v>4.770798957649014</v>
       </c>
       <c r="J114">
-        <v>-1.387399040961992</v>
+        <v>-1.377994135518526</v>
       </c>
       <c r="K114">
-        <v>-1.151699170626322</v>
+        <v>-1.061724087911554</v>
       </c>
       <c r="L114">
         <v>1</v>
@@ -4727,31 +4727,31 @@
         <v>0.9296514165094176</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>0.3380956165440767</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.6811053259961799</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.975310850059367</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>4.042591543719126</v>
+        <v>3.441892589979633</v>
       </c>
       <c r="I115">
-        <v>-2.644799606421647</v>
+        <v>-1.629456834355418</v>
       </c>
       <c r="J115">
-        <v>0.2211974444755249</v>
+        <v>-0.8299988947047408</v>
       </c>
       <c r="K115">
-        <v>0.1591952498240485</v>
+        <v>-1.807733167389459</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -4786,10 +4786,10 @@
         <v>-2.375444732249699</v>
       </c>
       <c r="J116">
-        <v>-0.07831823193758869</v>
+        <v>-0.1326264405081925</v>
       </c>
       <c r="K116">
-        <v>0.6250001523181354</v>
+        <v>1.437952833379338</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -4824,10 +4824,10 @@
         <v>-2.125150705031511</v>
       </c>
       <c r="J117">
-        <v>0.2269790026101882</v>
+        <v>0.1650816956623765</v>
       </c>
       <c r="K117">
-        <v>0.4735882129340995</v>
+        <v>1.264139499733625</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -4841,31 +4841,31 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0.9985048061592826</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0.1538912622987931</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.06677871597507445</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>8.293556734374107</v>
+        <v>7.909167869038868</v>
       </c>
       <c r="I118">
-        <v>0.5905374896985469</v>
+        <v>-0.6274779103119559</v>
       </c>
       <c r="J118">
-        <v>-0.8177296625652116</v>
+        <v>-0.5075876654228169</v>
       </c>
       <c r="K118">
-        <v>-0.3063825669450935</v>
+        <v>2.115045542752388</v>
       </c>
       <c r="L118">
         <v>0</v>
@@ -4900,10 +4900,10 @@
         <v>2.014245163658844</v>
       </c>
       <c r="J119">
-        <v>1.866638588111742</v>
+        <v>1.882763190057361</v>
       </c>
       <c r="K119">
-        <v>-1.072129853681726</v>
+        <v>-0.547892070971461</v>
       </c>
       <c r="L119">
         <v>0</v>
@@ -4938,10 +4938,10 @@
         <v>3.012992794274714</v>
       </c>
       <c r="J120">
-        <v>0.5568373052057725</v>
+        <v>0.5601993218037271</v>
       </c>
       <c r="K120">
-        <v>-1.761916474546882</v>
+        <v>-1.817770963161521</v>
       </c>
       <c r="L120">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.4549026157541178</v>
+        <v>0</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -4961,25 +4961,25 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0.6227676192034044</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>0.5649829470026478</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>4.367103246747988</v>
+        <v>5.28394543240657</v>
       </c>
       <c r="I121">
-        <v>-2.370826340786991</v>
+        <v>-2.270320874213545</v>
       </c>
       <c r="J121">
-        <v>0.9078932512023078</v>
+        <v>1.285543390567536</v>
       </c>
       <c r="K121">
-        <v>0.1165031024674552</v>
+        <v>0.06711749808807869</v>
       </c>
       <c r="L121">
         <v>0</v>
@@ -5014,10 +5014,10 @@
         <v>-2.093575626211042</v>
       </c>
       <c r="J122">
-        <v>-1.466127373450506</v>
+        <v>-1.462601670307229</v>
       </c>
       <c r="K122">
-        <v>0.09775669437875056</v>
+        <v>-0.005957818635296652</v>
       </c>
       <c r="L122">
         <v>1</v>
@@ -5052,10 +5052,10 @@
         <v>-1.73086994879139</v>
       </c>
       <c r="J123">
-        <v>-0.6971634383763055</v>
+        <v>-0.6757692780784591</v>
       </c>
       <c r="K123">
-        <v>-2.211863123823074</v>
+        <v>-2.194673737147303</v>
       </c>
       <c r="L123">
         <v>0</v>
@@ -5078,22 +5078,22 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>0.3389637685393327</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124">
-        <v>2.668588317878499</v>
+        <v>1.880764478796557</v>
       </c>
       <c r="I124">
-        <v>-3.702418173183399</v>
+        <v>-3.232110317031939</v>
       </c>
       <c r="J124">
-        <v>2.710277751429219</v>
+        <v>3.360905341623678</v>
       </c>
       <c r="K124">
-        <v>-0.3921767487924809</v>
+        <v>-0.2275584025000479</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -5128,10 +5128,10 @@
         <v>1.986674203880773</v>
       </c>
       <c r="J125">
-        <v>0.1450862062571399</v>
+        <v>0.1485373654103695</v>
       </c>
       <c r="K125">
-        <v>0.830397710426537</v>
+        <v>0.3175769055319531</v>
       </c>
       <c r="L125">
         <v>0</v>
@@ -5166,10 +5166,10 @@
         <v>0.02988419528381292</v>
       </c>
       <c r="J126">
-        <v>-0.8259205386811094</v>
+        <v>-0.8074131958778151</v>
       </c>
       <c r="K126">
-        <v>0.4229599306688011</v>
+        <v>0.340908464400352</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -5204,10 +5204,10 @@
         <v>2.379768236500968</v>
       </c>
       <c r="J127">
-        <v>-1.848021448478303</v>
+        <v>-1.920185595372564</v>
       </c>
       <c r="K127">
-        <v>2.255835669071952</v>
+        <v>2.968714461516309</v>
       </c>
       <c r="L127">
         <v>1</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.5854738173604882</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -5236,16 +5236,16 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>1.759904793804588</v>
+        <v>1.791207484210543</v>
       </c>
       <c r="I128">
-        <v>-2.65515025637413</v>
+        <v>-2.655789169101268</v>
       </c>
       <c r="J128">
-        <v>0.4102009337517651</v>
+        <v>-1.079277573803265</v>
       </c>
       <c r="K128">
-        <v>-0.2440889590946151</v>
+        <v>0.1626715525150895</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -5256,7 +5256,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.07828356031214012</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>0.02996579758464346</v>
@@ -5274,16 +5274,16 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>9.436840258198801</v>
+        <v>8.922465753718511</v>
       </c>
       <c r="I129">
-        <v>1.588040668157326</v>
+        <v>1.498510821750051</v>
       </c>
       <c r="J129">
-        <v>0.3885529372242796</v>
+        <v>1.390208591914923</v>
       </c>
       <c r="K129">
-        <v>-0.07421112840263189</v>
+        <v>-1.448394746406589</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -5306,22 +5306,22 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <v>0.7804714859819608</v>
+        <v>1</v>
       </c>
       <c r="G130">
-        <v>0.3840612973718244</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>-0.4527124640248674</v>
+        <v>-0.69809294373374</v>
       </c>
       <c r="I130">
-        <v>-2.327655025378872</v>
+        <v>-2.186052247105011</v>
       </c>
       <c r="J130">
-        <v>-1.306538785407503</v>
+        <v>-2.0595008387814</v>
       </c>
       <c r="K130">
-        <v>0.5225722325212069</v>
+        <v>0.9016470119645073</v>
       </c>
       <c r="L130">
         <v>1</v>
@@ -5341,25 +5341,25 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>0.006950836425169915</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.5205593672789685</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
-        <v>-0.08157504494246748</v>
+        <v>-0.01982359423913893</v>
       </c>
       <c r="I131">
-        <v>4.493632228318075</v>
+        <v>4.498561092208807</v>
       </c>
       <c r="J131">
-        <v>0.4399980806567175</v>
+        <v>0.2652335751172822</v>
       </c>
       <c r="K131">
-        <v>1.357022187578778</v>
+        <v>-0.5164850166080583</v>
       </c>
       <c r="L131">
         <v>0</v>
@@ -5373,13 +5373,13 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>0.2478801461442591</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.2641659854672616</v>
       </c>
       <c r="F132">
         <v>0.8845704693807581</v>
@@ -5388,16 +5388,16 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>2.99744238421976</v>
+        <v>2.88666118461357</v>
       </c>
       <c r="I132">
-        <v>-1.113929488734906</v>
+        <v>-0.8736751927748331</v>
       </c>
       <c r="J132">
-        <v>3.216809109573822</v>
+        <v>3.840605620814339</v>
       </c>
       <c r="K132">
-        <v>1.16222662152074</v>
+        <v>0.3362938946801106</v>
       </c>
       <c r="L132">
         <v>0</v>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0.1370249222378584</v>
       </c>
       <c r="F133">
         <v>0.6684189652080228</v>
@@ -5426,16 +5426,16 @@
         <v>0.6559570506530288</v>
       </c>
       <c r="H133">
-        <v>-1.771897560624821</v>
+        <v>-1.412414747609562</v>
       </c>
       <c r="I133">
-        <v>-1.912735698411983</v>
+        <v>-1.836899154814711</v>
       </c>
       <c r="J133">
-        <v>-0.6856271537032095</v>
+        <v>-0.9540007365957026</v>
       </c>
       <c r="K133">
-        <v>-0.5533445083336676</v>
+        <v>0.3149526971931215</v>
       </c>
       <c r="L133">
         <v>0</v>
@@ -5470,10 +5470,10 @@
         <v>5.535849741717053</v>
       </c>
       <c r="J134">
-        <v>-1.486559211543774</v>
+        <v>-1.480552414732546</v>
       </c>
       <c r="K134">
-        <v>-1.145043721345766</v>
+        <v>-1.055898390095586</v>
       </c>
       <c r="L134">
         <v>1</v>
@@ -5508,10 +5508,10 @@
         <v>-1.163076258836735</v>
       </c>
       <c r="J135">
-        <v>0.2121020052422231</v>
+        <v>0.2496873905762786</v>
       </c>
       <c r="K135">
-        <v>-1.053426130294288</v>
+        <v>-1.01409758810348</v>
       </c>
       <c r="L135">
         <v>0</v>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0.03510902139968519</v>
+        <v>0.07021804279937038</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -5540,16 +5540,16 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>-1.948124172811472</v>
+        <v>-1.914761399200927</v>
       </c>
       <c r="I136">
-        <v>-0.9826300035176339</v>
+        <v>-1.139597019195843</v>
       </c>
       <c r="J136">
-        <v>-0.2697601652609642</v>
+        <v>1.704199594147096</v>
       </c>
       <c r="K136">
-        <v>-0.3966041057665</v>
+        <v>-0.2152672307141726</v>
       </c>
       <c r="L136">
         <v>0</v>
@@ -5578,16 +5578,16 @@
         <v>0.6758693965216387</v>
       </c>
       <c r="H137">
-        <v>1.950756104866445</v>
+        <v>1.78496355655799</v>
       </c>
       <c r="I137">
-        <v>-4.314578491228987</v>
+        <v>-5.316048825051209</v>
       </c>
       <c r="J137">
-        <v>0.2029757000576033</v>
+        <v>-0.3656389664147938</v>
       </c>
       <c r="K137">
-        <v>-0.7359434710881401</v>
+        <v>-1.090947453420068</v>
       </c>
       <c r="L137">
         <v>0</v>
@@ -5622,10 +5622,10 @@
         <v>-2.391248576662393</v>
       </c>
       <c r="J138">
-        <v>-1.212998202083511</v>
+        <v>-1.203183303193938</v>
       </c>
       <c r="K138">
-        <v>0.1400666672261277</v>
+        <v>0.1938037879411319</v>
       </c>
       <c r="L138">
         <v>1</v>
@@ -5660,10 +5660,10 @@
         <v>-1.440590333357679</v>
       </c>
       <c r="J139">
-        <v>-1.236121531555461</v>
+        <v>-1.214746695843257</v>
       </c>
       <c r="K139">
-        <v>-1.162784016673694</v>
+        <v>-1.170023305564917</v>
       </c>
       <c r="L139">
         <v>0</v>
@@ -5698,10 +5698,10 @@
         <v>-1.338791330800029</v>
       </c>
       <c r="J140">
-        <v>-1.751043983155672</v>
+        <v>-1.734760301666173</v>
       </c>
       <c r="K140">
-        <v>-0.3176526265956147</v>
+        <v>-0.5139187283269093</v>
       </c>
       <c r="L140">
         <v>1</v>
@@ -5736,10 +5736,10 @@
         <v>-4.336959714438739</v>
       </c>
       <c r="J141">
-        <v>-1.792122567793316</v>
+        <v>-1.797163680840558</v>
       </c>
       <c r="K141">
-        <v>0.3225840297751258</v>
+        <v>0.4364608083889347</v>
       </c>
       <c r="L141">
         <v>1</v>
@@ -5774,10 +5774,10 @@
         <v>7.185945587089833</v>
       </c>
       <c r="J142">
-        <v>-0.8901482304440442</v>
+        <v>-0.8512154100856656</v>
       </c>
       <c r="K142">
-        <v>-0.08977079256108131</v>
+        <v>-0.7311181601490712</v>
       </c>
       <c r="L142">
         <v>0</v>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>0.9376335634884163</v>
+        <v>1</v>
       </c>
       <c r="F143">
         <v>0.832190175495921</v>
@@ -5806,16 +5806,16 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>5.331934042225229</v>
+        <v>5.230494003482318</v>
       </c>
       <c r="I143">
-        <v>-1.741482339366878</v>
+        <v>-2.236599995360709</v>
       </c>
       <c r="J143">
-        <v>1.425622504688637</v>
+        <v>1.45647256228706</v>
       </c>
       <c r="K143">
-        <v>0.896448876744688</v>
+        <v>0.08407070058935108</v>
       </c>
       <c r="L143">
         <v>0</v>
@@ -5850,10 +5850,10 @@
         <v>3.937581311597548</v>
       </c>
       <c r="J144">
-        <v>-0.3225629316076993</v>
+        <v>-0.3083258305200779</v>
       </c>
       <c r="K144">
-        <v>0.8581856954532127</v>
+        <v>0.3108307677061093</v>
       </c>
       <c r="L144">
         <v>0</v>
@@ -5873,25 +5873,25 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>0.1908923159015569</v>
+        <v>1.809107684098443</v>
       </c>
       <c r="F145">
-        <v>0.3068775575887021</v>
+        <v>1</v>
       </c>
       <c r="G145">
         <v>0.7510119121476204</v>
       </c>
       <c r="H145">
-        <v>3.795741185174147</v>
+        <v>1.285843597214047</v>
       </c>
       <c r="I145">
-        <v>1.443191205815572</v>
+        <v>1.714181939697845</v>
       </c>
       <c r="J145">
-        <v>0.8290195153063274</v>
+        <v>0.1958475094978215</v>
       </c>
       <c r="K145">
-        <v>-1.943146115375517</v>
+        <v>-0.6657616628058567</v>
       </c>
       <c r="L145">
         <v>0</v>
